--- a/public/doc/专家库样表.xlsx
+++ b/public/doc/专家库样表.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\professor_manage\public\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D46367-360C-4E25-BE9D-912764D596E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31352BE-01FC-44F4-8841-F01181D40B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0675CA1A-ADDE-4C56-A764-57B7A5D0C5C8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$2</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,11 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
-  <si>
-    <t>专家标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,139 +67,229 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>从事专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治面貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加工作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在岗状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子信箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所学专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业院校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士</t>
+  </si>
+  <si>
+    <t>学士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究生</t>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全线（条）专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油墨涂层专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计制版专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防伪材料专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印钞工艺专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专用设备（钞券）专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行机具（钞券）专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机检技术（钞券）专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造币材料专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造币工艺专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计制模专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专用设备（造币）专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行机具（造币）专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机检技术（造币）专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+  </si>
+  <si>
+    <t>在岗</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阆中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承印基材专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（010）12345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>证件号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从事专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治面貌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加工作时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在岗状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业资格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子信箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硕士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川成都</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印刷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>510123199101012222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>党员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成钞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在岗</t>
+  </si>
+  <si>
+    <t>新东方厨师学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中共党员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门主任</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1@1.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>510123199001012222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群众</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +322,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="仿宋_GB2312"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -249,6 +353,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -258,21 +377,54 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -335,7 +487,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -387,7 +539,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -588,251 +740,632 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CDE3E9-50F0-4D76-9356-6B9BF40375E6}">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="15.625" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="13.625" customWidth="1"/>
+    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="13.375" customWidth="1"/>
+    <col min="20" max="20" width="13.75" customWidth="1"/>
+    <col min="21" max="21" width="21.5" customWidth="1"/>
+    <col min="22" max="22" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.375" customWidth="1"/>
+    <col min="25" max="25" width="10.875" customWidth="1"/>
+    <col min="26" max="26" width="12.875" customWidth="1"/>
+    <col min="27" max="27" width="21.375" customWidth="1"/>
+    <col min="28" max="29" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+    </row>
+    <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="E2" s="9">
+        <v>33817</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4">
-        <v>33817</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="J2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="9">
+        <v>29434</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="9">
         <v>44044</v>
       </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="4">
-        <v>44044</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2">
-        <v>6122</v>
-      </c>
-      <c r="X2">
+      <c r="R2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="8">
         <v>13299990000</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="4">
-        <v>33817</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="4">
-        <v>44044</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="4">
-        <v>44044</v>
-      </c>
-      <c r="P3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3">
-        <v>6277</v>
-      </c>
-      <c r="X3">
-        <v>13199990000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="G4" s="4"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576 E2:E1048576 L2:L1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>1</formula1>
+      <formula2>2958101</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>"在岗,不在岗"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>18</formula1>
+      <formula2>18</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="写毕业学校" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{5B9A039B-104D-42DA-9BDB-5F884C090EA4}">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1" xr:uid="{92A70127-39DA-49A2-A220-DF24B0E29966}"/>
-    <hyperlink ref="V3" r:id="rId2" xr:uid="{D75D85D3-2184-4DC8-957B-EFB956CBEAEE}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>